--- a/artfynd/A 36809-2020.xlsx
+++ b/artfynd/A 36809-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>87870048</v>
+        <v>96272964</v>
       </c>
       <c r="B2" t="n">
-        <v>78570</v>
+        <v>89952</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>760</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514222.0574511656</v>
+        <v>513943.4973630594</v>
       </c>
       <c r="R2" t="n">
-        <v>7127958.143894595</v>
+        <v>7128277.498519013</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -753,7 +751,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +761,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,7 +775,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>87870044</v>
+        <v>96272965</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,37 +809,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514222.0574511656</v>
+        <v>513943.4973630594</v>
       </c>
       <c r="R3" t="n">
-        <v>7127958.143894595</v>
+        <v>7128277.498519013</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +864,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -879,7 +874,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -893,7 +888,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -912,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87870061</v>
+        <v>96272968</v>
       </c>
       <c r="B4" t="n">
-        <v>96354</v>
+        <v>78603</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,38 +922,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221952</v>
+        <v>6464</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514236.15484797</v>
+        <v>513943.4973630594</v>
       </c>
       <c r="R4" t="n">
-        <v>7127919.974674514</v>
+        <v>7128277.498519013</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -986,7 +977,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -996,7 +987,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1010,7 +1001,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1029,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>88782480</v>
+        <v>96272967</v>
       </c>
       <c r="B5" t="n">
         <v>78569</v>
@@ -1063,19 +1053,17 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514220.7985295507</v>
+        <v>513943.4973630594</v>
       </c>
       <c r="R5" t="n">
-        <v>7127948.145058074</v>
+        <v>7128277.498519013</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1102,7 +1090,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1112,7 +1100,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1126,7 +1114,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1145,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88782486</v>
+        <v>87870048</v>
       </c>
       <c r="B6" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1157,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1175,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>514220.7985295507</v>
+        <v>514222.0574511656</v>
       </c>
       <c r="R6" t="n">
-        <v>7127948.145058074</v>
+        <v>7127958.143894595</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1261,10 +1248,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>88782527</v>
+        <v>87870044</v>
       </c>
       <c r="B7" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,27 +1264,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1305,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>514238.5182067568</v>
+        <v>514222.0574511656</v>
       </c>
       <c r="R7" t="n">
-        <v>7128161.549234214</v>
+        <v>7127958.143894595</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1353,17 +1339,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1382,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88782509</v>
+        <v>87870061</v>
       </c>
       <c r="B8" t="n">
-        <v>78570</v>
+        <v>96354</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,30 +1376,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>221952</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1425,10 +1408,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>514200.9783977771</v>
+        <v>514236.15484797</v>
       </c>
       <c r="R8" t="n">
-        <v>7128095.338797636</v>
+        <v>7127919.974674514</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1498,10 +1481,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88782532</v>
+        <v>88782480</v>
       </c>
       <c r="B9" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,25 +1493,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1541,10 +1524,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>514228.184776813</v>
+        <v>514220.7985295507</v>
       </c>
       <c r="R9" t="n">
-        <v>7128138.475540235</v>
+        <v>7127948.145058074</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1614,10 +1597,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88782482</v>
+        <v>88782486</v>
       </c>
       <c r="B10" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1626,25 +1609,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1730,10 +1713,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88782511</v>
+        <v>88782527</v>
       </c>
       <c r="B11" t="n">
-        <v>78602</v>
+        <v>56395</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1742,30 +1725,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1773,10 +1757,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>514200.9783977771</v>
+        <v>514238.5182067568</v>
       </c>
       <c r="R11" t="n">
-        <v>7128095.338797636</v>
+        <v>7128161.549234214</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1821,13 +1805,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1846,10 +1834,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88782494</v>
+        <v>88782509</v>
       </c>
       <c r="B12" t="n">
-        <v>78503</v>
+        <v>78570</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,25 +1846,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1889,10 +1877,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>514196.7866004589</v>
+        <v>514200.9783977771</v>
       </c>
       <c r="R12" t="n">
-        <v>7128060.997000939</v>
+        <v>7128095.338797636</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1962,10 +1950,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88782492</v>
+        <v>88782532</v>
       </c>
       <c r="B13" t="n">
-        <v>78570</v>
+        <v>78503</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,25 +1962,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2005,10 +1993,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>514196.7866004589</v>
+        <v>514228.184776813</v>
       </c>
       <c r="R13" t="n">
-        <v>7128060.997000939</v>
+        <v>7128138.475540235</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2078,10 +2066,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>88782483</v>
+        <v>88782482</v>
       </c>
       <c r="B14" t="n">
-        <v>78602</v>
+        <v>78570</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,25 +2078,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2194,10 +2182,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>89594749</v>
+        <v>88782511</v>
       </c>
       <c r="B15" t="n">
-        <v>78569</v>
+        <v>78602</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,41 +2194,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>514225.1226646709</v>
+        <v>514200.9783977771</v>
       </c>
       <c r="R15" t="n">
-        <v>7127953.813262011</v>
+        <v>7128095.338797636</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2288,6 +2279,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2299,21 +2291,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>89594748</v>
+        <v>89594752</v>
       </c>
       <c r="B16" t="n">
-        <v>78570</v>
+        <v>78503</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2322,25 +2310,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2350,10 +2338,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>514225.1226646709</v>
+        <v>514196.7866004589</v>
       </c>
       <c r="R16" t="n">
-        <v>7127953.813262011</v>
+        <v>7128060.997000939</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2426,10 +2414,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>89594745</v>
+        <v>89594751</v>
       </c>
       <c r="B17" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2442,21 +2430,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2466,10 +2454,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>514226.0248175223</v>
+        <v>514196.7866004589</v>
       </c>
       <c r="R17" t="n">
-        <v>7127946.865754246</v>
+        <v>7128060.997000939</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2547,7 +2535,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>89594753</v>
+        <v>88782483</v>
       </c>
       <c r="B18" t="n">
         <v>78602</v>
@@ -2581,19 +2569,22 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>514203.1554088775</v>
+        <v>514220.7985295507</v>
       </c>
       <c r="R18" t="n">
-        <v>7128094.914377891</v>
+        <v>7127948.145058074</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2641,6 +2632,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2652,21 +2644,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89594744</v>
+        <v>89594749</v>
       </c>
       <c r="B19" t="n">
-        <v>96354</v>
+        <v>78569</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,25 +2663,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221952</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2703,10 +2691,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>514239.1960143572</v>
+        <v>514225.1226646709</v>
       </c>
       <c r="R19" t="n">
-        <v>7127920.857701166</v>
+        <v>7127953.813262011</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2779,10 +2767,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>89594756</v>
+        <v>89594748</v>
       </c>
       <c r="B20" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2795,21 +2783,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2819,10 +2807,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>514238.9511901711</v>
+        <v>514225.1226646709</v>
       </c>
       <c r="R20" t="n">
-        <v>7128161.985686115</v>
+        <v>7127953.813262011</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2865,11 +2853,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2900,10 +2883,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>89594755</v>
+        <v>89594745</v>
       </c>
       <c r="B21" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2912,25 +2895,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2940,10 +2923,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>514228.1827696093</v>
+        <v>514226.0248175223</v>
       </c>
       <c r="R21" t="n">
-        <v>7128138.909984135</v>
+        <v>7127946.865754246</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3021,10 +3004,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>89594754</v>
+        <v>89594753</v>
       </c>
       <c r="B22" t="n">
-        <v>78570</v>
+        <v>78602</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3033,25 +3016,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3061,10 +3044,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>514200.9804011364</v>
+        <v>514203.1554088775</v>
       </c>
       <c r="R22" t="n">
-        <v>7128094.904347612</v>
+        <v>7128094.914377891</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3117,11 +3100,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3142,10 +3120,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>89594746</v>
+        <v>89594744</v>
       </c>
       <c r="B23" t="n">
-        <v>78596</v>
+        <v>96354</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3158,21 +3136,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>221952</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3182,10 +3160,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>514226.0248175223</v>
+        <v>514239.1960143572</v>
       </c>
       <c r="R23" t="n">
-        <v>7127946.865754246</v>
+        <v>7127920.857701166</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3258,10 +3236,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>89594747</v>
+        <v>89594756</v>
       </c>
       <c r="B24" t="n">
-        <v>78602</v>
+        <v>56395</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3270,25 +3248,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3298,10 +3276,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>514226.0248175223</v>
+        <v>514238.9511901711</v>
       </c>
       <c r="R24" t="n">
-        <v>7127946.865754246</v>
+        <v>7128161.985686115</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3344,6 +3322,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3374,10 +3357,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>96276200</v>
+        <v>89594755</v>
       </c>
       <c r="B25" t="n">
-        <v>56395</v>
+        <v>78503</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3386,44 +3369,41 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Strömsund, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>514078.2046952047</v>
+        <v>514228.1827696093</v>
       </c>
       <c r="R25" t="n">
-        <v>7128117.366896777</v>
+        <v>7128138.909984135</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3447,7 +3427,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3457,7 +3437,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3465,11 +3445,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Ringhack, relativt färska</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
@@ -3478,6 +3453,11 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3487,14 +3467,18 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>96276906</v>
+        <v>89594754</v>
       </c>
       <c r="B26" t="n">
         <v>78570</v>
@@ -3528,20 +3512,19 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Strömsund, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>514212.511051541</v>
+        <v>514200.9804011364</v>
       </c>
       <c r="R26" t="n">
-        <v>7127952.88607844</v>
+        <v>7128094.904347612</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3565,7 +3548,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3575,7 +3558,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3591,6 +3574,11 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3600,17 +3588,21 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>96277250</v>
+        <v>89594746</v>
       </c>
       <c r="B27" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3619,42 +3611,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Strömsund, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>514226.4538191929</v>
+        <v>514226.0248175223</v>
       </c>
       <c r="R27" t="n">
-        <v>7127948.1711761</v>
+        <v>7127946.865754246</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3678,7 +3669,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3688,7 +3679,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3713,17 +3704,21 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>96276767</v>
+        <v>89594747</v>
       </c>
       <c r="B28" t="n">
-        <v>56395</v>
+        <v>78602</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3732,44 +3727,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Strömsund, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>514128.2050770036</v>
+        <v>514226.0248175223</v>
       </c>
       <c r="R28" t="n">
-        <v>7128028.09664302</v>
+        <v>7127946.865754246</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3793,7 +3785,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3803,17 +3795,12 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3833,14 +3820,18 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY28" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>96277801</v>
+        <v>96276200</v>
       </c>
       <c r="B29" t="n">
         <v>56395</v>
@@ -3883,10 +3874,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>514222.9287156384</v>
+        <v>514078.2046952047</v>
       </c>
       <c r="R29" t="n">
-        <v>7128146.271408552</v>
+        <v>7128117.366896777</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3933,7 +3924,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, relativt färska</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3960,10 +3951,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>96272964</v>
+        <v>96276906</v>
       </c>
       <c r="B30" t="n">
-        <v>89952</v>
+        <v>78570</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3972,25 +3963,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>760</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4001,10 +3992,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>513943.4973630594</v>
+        <v>514212.511051541</v>
       </c>
       <c r="R30" t="n">
-        <v>7128277.498519013</v>
+        <v>7127952.88607844</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4073,10 +4064,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>96272965</v>
+        <v>96277250</v>
       </c>
       <c r="B31" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4089,21 +4080,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4114,10 +4105,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>513943.4973630594</v>
+        <v>514226.4538191929</v>
       </c>
       <c r="R31" t="n">
-        <v>7128277.498519013</v>
+        <v>7127948.1711761</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4186,10 +4177,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>96277025</v>
+        <v>96276767</v>
       </c>
       <c r="B32" t="n">
-        <v>78602</v>
+        <v>56395</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4198,39 +4189,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>514234.0841323133</v>
+        <v>514128.2050770036</v>
       </c>
       <c r="R32" t="n">
-        <v>7127897.371855048</v>
+        <v>7128028.09664302</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4273,6 +4266,11 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4299,10 +4297,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96277282</v>
+        <v>96277801</v>
       </c>
       <c r="B33" t="n">
-        <v>78570</v>
+        <v>56395</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4315,35 +4313,37 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>514226.4538191929</v>
+        <v>514222.9287156384</v>
       </c>
       <c r="R33" t="n">
-        <v>7127948.1711761</v>
+        <v>7128146.271408552</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4386,6 +4386,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4412,10 +4417,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>96276837</v>
+        <v>96277025</v>
       </c>
       <c r="B34" t="n">
-        <v>56395</v>
+        <v>78602</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4424,41 +4429,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>514142.5604390417</v>
+        <v>514234.0841323133</v>
       </c>
       <c r="R34" t="n">
-        <v>7128028.162531699</v>
+        <v>7127897.371855048</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4501,11 +4504,6 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4532,10 +4530,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>96272968</v>
+        <v>96277282</v>
       </c>
       <c r="B35" t="n">
-        <v>78603</v>
+        <v>78570</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4544,25 +4542,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6464</v>
+        <v>2081</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4573,10 +4571,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>513943.4973630594</v>
+        <v>514226.4538191929</v>
       </c>
       <c r="R35" t="n">
-        <v>7128277.498519013</v>
+        <v>7127948.1711761</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4645,10 +4643,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>96277464</v>
+        <v>96276837</v>
       </c>
       <c r="B36" t="n">
-        <v>78603</v>
+        <v>56395</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4657,39 +4655,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>514255.8221578836</v>
+        <v>514142.5604390417</v>
       </c>
       <c r="R36" t="n">
-        <v>7127994.361512901</v>
+        <v>7128028.162531699</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4732,6 +4732,11 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4758,10 +4763,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>96276289</v>
+        <v>96277464</v>
       </c>
       <c r="B37" t="n">
-        <v>78596</v>
+        <v>78603</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4774,21 +4779,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6462</v>
+        <v>6464</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4799,10 +4804,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>514084.9959255125</v>
+        <v>514255.8221578836</v>
       </c>
       <c r="R37" t="n">
-        <v>7128059.18030185</v>
+        <v>7127994.361512901</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4871,10 +4876,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>96277002</v>
+        <v>96276289</v>
       </c>
       <c r="B38" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4883,25 +4888,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4912,10 +4917,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>514234.0841323133</v>
+        <v>514084.9959255125</v>
       </c>
       <c r="R38" t="n">
-        <v>7127897.371855048</v>
+        <v>7128059.18030185</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4984,7 +4989,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>96277470</v>
+        <v>96277002</v>
       </c>
       <c r="B39" t="n">
         <v>78570</v>
@@ -5025,10 +5030,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>514255.8221578836</v>
+        <v>514234.0841323133</v>
       </c>
       <c r="R39" t="n">
-        <v>7127994.361512901</v>
+        <v>7127897.371855048</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5097,10 +5102,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>96277462</v>
+        <v>96277470</v>
       </c>
       <c r="B40" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5113,21 +5118,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5210,10 +5215,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>96277035</v>
+        <v>96277462</v>
       </c>
       <c r="B41" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5226,37 +5231,35 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>514234.0981883124</v>
+        <v>514255.8221578836</v>
       </c>
       <c r="R41" t="n">
-        <v>7127894.330508536</v>
+        <v>7127994.361512901</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5299,11 +5302,6 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5330,7 +5328,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>96277639</v>
+        <v>96277035</v>
       </c>
       <c r="B42" t="n">
         <v>56395</v>
@@ -5373,10 +5371,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>514204.4383711794</v>
+        <v>514234.0981883124</v>
       </c>
       <c r="R42" t="n">
-        <v>7128099.699343724</v>
+        <v>7127894.330508536</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5450,7 +5448,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>96277147</v>
+        <v>96277639</v>
       </c>
       <c r="B43" t="n">
         <v>56395</v>
@@ -5493,10 +5491,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>514253.2395030356</v>
+        <v>514204.4383711794</v>
       </c>
       <c r="R43" t="n">
-        <v>7127894.419032215</v>
+        <v>7128099.699343724</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5570,10 +5568,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>96272967</v>
+        <v>96277147</v>
       </c>
       <c r="B44" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5586,35 +5584,37 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>513943.4973630594</v>
+        <v>514253.2395030356</v>
       </c>
       <c r="R44" t="n">
-        <v>7128277.498519013</v>
+        <v>7127894.419032215</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5657,6 +5657,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">

--- a/artfynd/A 36809-2020.xlsx
+++ b/artfynd/A 36809-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96272964</v>
+        <v>87870048</v>
       </c>
       <c r="B2" t="n">
-        <v>89952</v>
+        <v>78570</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>760</v>
+        <v>2081</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Strömsund, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>513943.4973630594</v>
+        <v>514222.0574511656</v>
       </c>
       <c r="R2" t="n">
-        <v>7128277.498519013</v>
+        <v>7127958.143894595</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -751,7 +753,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -761,7 +763,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -775,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -793,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96272965</v>
+        <v>87870044</v>
       </c>
       <c r="B3" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,35 +812,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Strömsund, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>513943.4973630594</v>
+        <v>514222.0574511656</v>
       </c>
       <c r="R3" t="n">
-        <v>7128277.498519013</v>
+        <v>7127958.143894595</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -864,7 +869,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -874,7 +879,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -888,6 +893,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -906,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96272968</v>
+        <v>87870061</v>
       </c>
       <c r="B4" t="n">
-        <v>78603</v>
+        <v>96354</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,35 +928,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6464</v>
+        <v>221952</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Strömsund, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>513943.4973630594</v>
+        <v>514236.15484797</v>
       </c>
       <c r="R4" t="n">
-        <v>7128277.498519013</v>
+        <v>7127919.974674514</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -977,7 +986,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -987,7 +996,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1001,6 +1010,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1019,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96272967</v>
+        <v>88782480</v>
       </c>
       <c r="B5" t="n">
         <v>78569</v>
@@ -1053,17 +1063,19 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Strömsund, Jmt</t>
+          <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>513943.4973630594</v>
+        <v>514220.7985295507</v>
       </c>
       <c r="R5" t="n">
-        <v>7128277.498519013</v>
+        <v>7127948.145058074</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1090,7 +1102,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1100,7 +1112,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1114,6 +1126,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1132,10 +1145,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87870048</v>
+        <v>88782486</v>
       </c>
       <c r="B6" t="n">
-        <v>78570</v>
+        <v>78596</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1157,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2081</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1175,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>514222.0574511656</v>
+        <v>514220.7985295507</v>
       </c>
       <c r="R6" t="n">
-        <v>7127958.143894595</v>
+        <v>7127948.145058074</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1248,10 +1261,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87870044</v>
+        <v>88782527</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1264,26 +1277,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1291,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>514222.0574511656</v>
+        <v>514238.5182067568</v>
       </c>
       <c r="R7" t="n">
-        <v>7127958.143894595</v>
+        <v>7128161.549234214</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1339,13 +1353,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1364,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>87870061</v>
+        <v>88782509</v>
       </c>
       <c r="B8" t="n">
-        <v>96354</v>
+        <v>78570</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1376,31 +1394,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221952</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1408,10 +1425,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>514236.15484797</v>
+        <v>514200.9783977771</v>
       </c>
       <c r="R8" t="n">
-        <v>7127919.974674514</v>
+        <v>7128095.338797636</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1481,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>88782480</v>
+        <v>88782532</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,25 +1510,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1524,10 +1541,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>514220.7985295507</v>
+        <v>514228.184776813</v>
       </c>
       <c r="R9" t="n">
-        <v>7127948.145058074</v>
+        <v>7128138.475540235</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1597,10 +1614,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88782486</v>
+        <v>88782482</v>
       </c>
       <c r="B10" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1609,25 +1626,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1713,10 +1730,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88782527</v>
+        <v>88782511</v>
       </c>
       <c r="B11" t="n">
-        <v>56395</v>
+        <v>78602</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,31 +1742,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1757,10 +1773,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>514238.5182067568</v>
+        <v>514200.9783977771</v>
       </c>
       <c r="R11" t="n">
-        <v>7128161.549234214</v>
+        <v>7128095.338797636</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1805,17 +1821,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1834,10 +1846,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88782509</v>
+        <v>89594752</v>
       </c>
       <c r="B12" t="n">
-        <v>78570</v>
+        <v>78503</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1846,44 +1858,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>514200.9783977771</v>
+        <v>514196.7866004589</v>
       </c>
       <c r="R12" t="n">
-        <v>7128095.338797636</v>
+        <v>7128060.997000939</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1931,7 +1940,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1943,17 +1951,21 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88782532</v>
+        <v>89594751</v>
       </c>
       <c r="B13" t="n">
-        <v>78503</v>
+        <v>78570</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1962,44 +1974,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>514228.184776813</v>
+        <v>514196.7866004589</v>
       </c>
       <c r="R13" t="n">
-        <v>7128138.475540235</v>
+        <v>7128060.997000939</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2047,9 +2056,13 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2059,17 +2072,21 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>88782482</v>
+        <v>88782483</v>
       </c>
       <c r="B14" t="n">
-        <v>78570</v>
+        <v>78602</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2078,25 +2095,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2182,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>88782511</v>
+        <v>89594749</v>
       </c>
       <c r="B15" t="n">
-        <v>78602</v>
+        <v>78569</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2194,44 +2211,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>514200.9783977771</v>
+        <v>514225.1226646709</v>
       </c>
       <c r="R15" t="n">
-        <v>7128095.338797636</v>
+        <v>7127953.813262011</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2279,7 +2293,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2291,17 +2304,21 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>89594752</v>
+        <v>89594748</v>
       </c>
       <c r="B16" t="n">
-        <v>78503</v>
+        <v>78570</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2310,25 +2327,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6456</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2338,10 +2355,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>514196.7866004589</v>
+        <v>514225.1226646709</v>
       </c>
       <c r="R16" t="n">
-        <v>7128060.997000939</v>
+        <v>7127953.813262011</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2414,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>89594751</v>
+        <v>89594745</v>
       </c>
       <c r="B17" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2430,21 +2447,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2454,10 +2471,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>514196.7866004589</v>
+        <v>514226.0248175223</v>
       </c>
       <c r="R17" t="n">
-        <v>7128060.997000939</v>
+        <v>7127946.865754246</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2535,7 +2552,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>88782483</v>
+        <v>89594753</v>
       </c>
       <c r="B18" t="n">
         <v>78602</v>
@@ -2569,22 +2586,19 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Över-Gissmansvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>514220.7985295507</v>
+        <v>514203.1554088775</v>
       </c>
       <c r="R18" t="n">
-        <v>7127948.145058074</v>
+        <v>7128094.914377891</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2632,7 +2646,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2644,17 +2657,21 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89594749</v>
+        <v>89594744</v>
       </c>
       <c r="B19" t="n">
-        <v>78569</v>
+        <v>96354</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2663,25 +2680,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>221952</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2691,10 +2708,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>514225.1226646709</v>
+        <v>514239.1960143572</v>
       </c>
       <c r="R19" t="n">
-        <v>7127953.813262011</v>
+        <v>7127920.857701166</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2767,10 +2784,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>89594748</v>
+        <v>89594756</v>
       </c>
       <c r="B20" t="n">
-        <v>78570</v>
+        <v>56395</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2783,21 +2800,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2807,10 +2824,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>514225.1226646709</v>
+        <v>514238.9511901711</v>
       </c>
       <c r="R20" t="n">
-        <v>7127953.813262011</v>
+        <v>7128161.985686115</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2853,6 +2870,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2883,10 +2905,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>89594745</v>
+        <v>89594755</v>
       </c>
       <c r="B21" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2895,25 +2917,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2923,10 +2945,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>514226.0248175223</v>
+        <v>514228.1827696093</v>
       </c>
       <c r="R21" t="n">
-        <v>7127946.865754246</v>
+        <v>7128138.909984135</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3004,10 +3026,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>89594753</v>
+        <v>89594754</v>
       </c>
       <c r="B22" t="n">
-        <v>78602</v>
+        <v>78570</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3016,25 +3038,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3044,10 +3066,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>514203.1554088775</v>
+        <v>514200.9804011364</v>
       </c>
       <c r="R22" t="n">
-        <v>7128094.914377891</v>
+        <v>7128094.904347612</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3100,6 +3122,11 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Sälg</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3120,10 +3147,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>89594744</v>
+        <v>89594746</v>
       </c>
       <c r="B23" t="n">
-        <v>96354</v>
+        <v>78596</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3136,21 +3163,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3160,10 +3187,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>514239.1960143572</v>
+        <v>514226.0248175223</v>
       </c>
       <c r="R23" t="n">
-        <v>7127920.857701166</v>
+        <v>7127946.865754246</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3236,10 +3263,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>89594756</v>
+        <v>89594747</v>
       </c>
       <c r="B24" t="n">
-        <v>56395</v>
+        <v>78602</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3248,25 +3275,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3276,10 +3303,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>514238.9511901711</v>
+        <v>514226.0248175223</v>
       </c>
       <c r="R24" t="n">
-        <v>7128161.985686115</v>
+        <v>7127946.865754246</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3322,11 +3349,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3357,10 +3379,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>89594755</v>
+        <v>96276200</v>
       </c>
       <c r="B25" t="n">
-        <v>78503</v>
+        <v>56395</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3369,41 +3391,44 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>514228.1827696093</v>
+        <v>514078.2046952047</v>
       </c>
       <c r="R25" t="n">
-        <v>7128138.909984135</v>
+        <v>7128117.366896777</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3427,7 +3452,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3437,7 +3462,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3445,6 +3470,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Ringhack, relativt färska</t>
+        </is>
+      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
@@ -3453,11 +3483,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3467,18 +3492,14 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>89594754</v>
+        <v>96276906</v>
       </c>
       <c r="B26" t="n">
         <v>78570</v>
@@ -3512,19 +3533,20 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>514200.9804011364</v>
+        <v>514212.511051541</v>
       </c>
       <c r="R26" t="n">
-        <v>7128094.904347612</v>
+        <v>7127952.88607844</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3548,7 +3570,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3558,7 +3580,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3574,11 +3596,6 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Sälg</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3588,21 +3605,17 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>89594746</v>
+        <v>96277250</v>
       </c>
       <c r="B27" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3611,41 +3624,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>514226.0248175223</v>
+        <v>514226.4538191929</v>
       </c>
       <c r="R27" t="n">
-        <v>7127946.865754246</v>
+        <v>7127948.1711761</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3669,7 +3683,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3679,7 +3693,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3704,21 +3718,17 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>89594747</v>
+        <v>96276767</v>
       </c>
       <c r="B28" t="n">
-        <v>78602</v>
+        <v>56395</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3727,41 +3737,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Över-Gissmansvattnet, Jmt</t>
+          <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>514226.0248175223</v>
+        <v>514128.2050770036</v>
       </c>
       <c r="R28" t="n">
-        <v>7127946.865754246</v>
+        <v>7128028.09664302</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3785,7 +3798,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3795,12 +3808,17 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3820,18 +3838,14 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY28" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>96276200</v>
+        <v>96277801</v>
       </c>
       <c r="B29" t="n">
         <v>56395</v>
@@ -3874,10 +3888,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>514078.2046952047</v>
+        <v>514222.9287156384</v>
       </c>
       <c r="R29" t="n">
-        <v>7128117.366896777</v>
+        <v>7128146.271408552</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3924,7 +3938,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, relativt färska</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3951,10 +3965,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>96276906</v>
+        <v>96272964</v>
       </c>
       <c r="B30" t="n">
-        <v>78570</v>
+        <v>89952</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3963,25 +3977,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>760</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3992,10 +4006,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>514212.511051541</v>
+        <v>513943.4973630594</v>
       </c>
       <c r="R30" t="n">
-        <v>7127952.88607844</v>
+        <v>7128277.498519013</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4064,10 +4078,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>96277250</v>
+        <v>96272965</v>
       </c>
       <c r="B31" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4080,21 +4094,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4105,10 +4119,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>514226.4538191929</v>
+        <v>513943.4973630594</v>
       </c>
       <c r="R31" t="n">
-        <v>7127948.1711761</v>
+        <v>7128277.498519013</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4177,10 +4191,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>96276767</v>
+        <v>96277025</v>
       </c>
       <c r="B32" t="n">
-        <v>56395</v>
+        <v>78602</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4189,41 +4203,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>514128.2050770036</v>
+        <v>514234.0841323133</v>
       </c>
       <c r="R32" t="n">
-        <v>7128028.09664302</v>
+        <v>7127897.371855048</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4266,11 +4278,6 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4297,10 +4304,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96277801</v>
+        <v>96277282</v>
       </c>
       <c r="B33" t="n">
-        <v>56395</v>
+        <v>78570</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4313,37 +4320,35 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>514222.9287156384</v>
+        <v>514226.4538191929</v>
       </c>
       <c r="R33" t="n">
-        <v>7128146.271408552</v>
+        <v>7127948.1711761</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4386,11 +4391,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4417,10 +4417,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>96277025</v>
+        <v>96276837</v>
       </c>
       <c r="B34" t="n">
-        <v>78602</v>
+        <v>56395</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4429,39 +4429,41 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>514234.0841323133</v>
+        <v>514142.5604390417</v>
       </c>
       <c r="R34" t="n">
-        <v>7127897.371855048</v>
+        <v>7128028.162531699</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4504,6 +4506,11 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4530,10 +4537,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>96277282</v>
+        <v>96272968</v>
       </c>
       <c r="B35" t="n">
-        <v>78570</v>
+        <v>78603</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4542,25 +4549,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2081</v>
+        <v>6464</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4571,10 +4578,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>514226.4538191929</v>
+        <v>513943.4973630594</v>
       </c>
       <c r="R35" t="n">
-        <v>7127948.1711761</v>
+        <v>7128277.498519013</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4643,10 +4650,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>96276837</v>
+        <v>96277464</v>
       </c>
       <c r="B36" t="n">
-        <v>56395</v>
+        <v>78603</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4655,41 +4662,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6464</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>514142.5604390417</v>
+        <v>514255.8221578836</v>
       </c>
       <c r="R36" t="n">
-        <v>7128028.162531699</v>
+        <v>7127994.361512901</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4732,11 +4737,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4763,10 +4763,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>96277464</v>
+        <v>96276289</v>
       </c>
       <c r="B37" t="n">
-        <v>78603</v>
+        <v>78596</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4779,21 +4779,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6464</v>
+        <v>6462</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4804,10 +4804,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>514255.8221578836</v>
+        <v>514084.9959255125</v>
       </c>
       <c r="R37" t="n">
-        <v>7127994.361512901</v>
+        <v>7128059.18030185</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4876,10 +4876,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>96276289</v>
+        <v>96277002</v>
       </c>
       <c r="B38" t="n">
-        <v>78596</v>
+        <v>78570</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4888,25 +4888,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6462</v>
+        <v>2081</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4917,10 +4917,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>514084.9959255125</v>
+        <v>514234.0841323133</v>
       </c>
       <c r="R38" t="n">
-        <v>7128059.18030185</v>
+        <v>7127897.371855048</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>96277002</v>
+        <v>96277470</v>
       </c>
       <c r="B39" t="n">
         <v>78570</v>
@@ -5030,10 +5030,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>514234.0841323133</v>
+        <v>514255.8221578836</v>
       </c>
       <c r="R39" t="n">
-        <v>7127897.371855048</v>
+        <v>7127994.361512901</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5102,10 +5102,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>96277470</v>
+        <v>96277462</v>
       </c>
       <c r="B40" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5118,21 +5118,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>96277462</v>
+        <v>96277035</v>
       </c>
       <c r="B41" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5231,35 +5231,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>514255.8221578836</v>
+        <v>514234.0981883124</v>
       </c>
       <c r="R41" t="n">
-        <v>7127994.361512901</v>
+        <v>7127894.330508536</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5302,6 +5304,11 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5328,7 +5335,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>96277035</v>
+        <v>96277639</v>
       </c>
       <c r="B42" t="n">
         <v>56395</v>
@@ -5371,10 +5378,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>514234.0981883124</v>
+        <v>514204.4383711794</v>
       </c>
       <c r="R42" t="n">
-        <v>7127894.330508536</v>
+        <v>7128099.699343724</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5448,7 +5455,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>96277639</v>
+        <v>96277147</v>
       </c>
       <c r="B43" t="n">
         <v>56395</v>
@@ -5491,10 +5498,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>514204.4383711794</v>
+        <v>514253.2395030356</v>
       </c>
       <c r="R43" t="n">
-        <v>7128099.699343724</v>
+        <v>7127894.419032215</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5568,10 +5575,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>96277147</v>
+        <v>96272967</v>
       </c>
       <c r="B44" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5584,37 +5591,35 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Strömsund, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>514253.2395030356</v>
+        <v>513943.4973630594</v>
       </c>
       <c r="R44" t="n">
-        <v>7127894.419032215</v>
+        <v>7128277.498519013</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5657,11 +5662,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
